--- a/design.xlsx
+++ b/design.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7575" tabRatio="932" firstSheet="8" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="932" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -37,24 +37,28 @@
     <sheet name="Admin page" sheetId="26" r:id="rId28"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -80,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20665,6 +20672,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" sz="2000" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="bg-BG" sz="2000" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -20680,7 +20695,7 @@
             </a:rPr>
             <a:t>Эмэгтэй бэлэг</a:t>
           </a:r>
-          <a:endParaRPr lang="bg-BG" sz="2000" u="sng" baseline="0">
+          <a:endParaRPr lang="en-US" sz="2000" u="sng" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -20694,7 +20709,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>  ・ </a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="bg-BG" sz="2000" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ・ </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="mn-MN" sz="2000" u="sng" baseline="0">
@@ -20704,7 +20735,7 @@
             </a:rPr>
             <a:t>Хүүхдийн бэлэг</a:t>
           </a:r>
-          <a:endParaRPr lang="bg-BG" sz="2000" u="sng" baseline="0">
+          <a:endParaRPr lang="en-US" sz="2000" u="sng" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -20713,45 +20744,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="bg-BG" sz="2000" u="none" baseline="0">
+            <a:rPr lang="en-US" sz="2000" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>  ・ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="mn-MN" sz="2000" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Төрсөн өдрийн бэлэг</a:t>
-          </a:r>
-          <a:endParaRPr lang="bg-BG" sz="2000" u="sng" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+            <a:t> </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="2000" u="none" baseline="0">
               <a:solidFill>
@@ -20775,7 +20774,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  ・ </a:t>
+            <a:t> ・ </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="0" lang="mn-MN" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
@@ -20810,76 +20809,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Хуримын бэлэг</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="mn-MN" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="0" lang="mn-MN" altLang="ja-JP" sz="2000" b="0" i="0" u="sng" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Валентины бэлэг</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -61856,25 +61785,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -61883,17 +61817,22 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8"/>
   </sheetPr>
@@ -61903,37 +61842,47 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BB9" sqref="BB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
@@ -61943,17 +61892,22 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
@@ -61963,18 +61917,23 @@
       <selection activeCell="BB9" sqref="BB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -61983,18 +61942,23 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -62003,63 +61967,82 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="BJ33" sqref="BJ33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="31" spans="4:4">
+      <c r="D31" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A36:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="BB76" sqref="BB76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="36" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" ht="20" customHeight="1"/>
     <row r="37" ht="15" customHeight="1"/>
     <row r="38" ht="15" customHeight="1"/>
     <row r="39" ht="15" customHeight="1"/>
@@ -62069,28 +62052,38 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8"/>
   </sheetPr>
@@ -62100,17 +62093,22 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
@@ -62120,17 +62118,22 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
@@ -62140,17 +62143,22 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
@@ -62160,153 +62168,198 @@
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="BK48" sqref="BK48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="BH25" sqref="BH25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="BD33" sqref="BD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="BC12" sqref="BC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="BE32" sqref="BE32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="BE32" sqref="BE32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="BF15" sqref="BF15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
@@ -62316,18 +62369,23 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -62336,18 +62394,23 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -62356,18 +62419,23 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -62376,11 +62444,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>